--- a/pred_ohlcv/54_23/2019-10-09 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-09 LINK ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -415,7 +415,7 @@
         <v>2980</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -438,7 +438,7 @@
         <v>2988</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -461,7 +461,7 @@
         <v>2980</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -484,7 +484,7 @@
         <v>2988</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -507,7 +507,7 @@
         <v>2988</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -530,7 +530,7 @@
         <v>2984</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>3004</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>3005</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>3009</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -4302,7 +4302,7 @@
         <v>3187</v>
       </c>
       <c r="F171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -4325,7 +4325,7 @@
         <v>3192</v>
       </c>
       <c r="F172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -4348,7 +4348,7 @@
         <v>3207</v>
       </c>
       <c r="F173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -4371,7 +4371,7 @@
         <v>3198</v>
       </c>
       <c r="F174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -4463,7 +4463,7 @@
         <v>3237</v>
       </c>
       <c r="F178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -4509,7 +4509,7 @@
         <v>3195</v>
       </c>
       <c r="F180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -4532,7 +4532,7 @@
         <v>3182</v>
       </c>
       <c r="F181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -4555,7 +4555,7 @@
         <v>3183</v>
       </c>
       <c r="F182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -4578,7 +4578,7 @@
         <v>3182</v>
       </c>
       <c r="F183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -4624,7 +4624,7 @@
         <v>3193</v>
       </c>
       <c r="F185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -4647,7 +4647,7 @@
         <v>3193</v>
       </c>
       <c r="F186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -4670,7 +4670,7 @@
         <v>3192</v>
       </c>
       <c r="F187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259">
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280">
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289">
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291">
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292">
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294">
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295">
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298">
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301">
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="G306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322">
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -7893,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -8284,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="G349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350">
@@ -8787,7 +8787,7 @@
         <v>3276</v>
       </c>
       <c r="F366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -8810,7 +8810,7 @@
         <v>3288</v>
       </c>
       <c r="F367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -8833,7 +8833,7 @@
         <v>3295</v>
       </c>
       <c r="F368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -8856,7 +8856,7 @@
         <v>3305</v>
       </c>
       <c r="F369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -8879,7 +8879,7 @@
         <v>3300</v>
       </c>
       <c r="F370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -8902,7 +8902,7 @@
         <v>3288</v>
       </c>
       <c r="F371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -8925,7 +8925,7 @@
         <v>3292</v>
       </c>
       <c r="F372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -8948,7 +8948,7 @@
         <v>3293</v>
       </c>
       <c r="F373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -8971,7 +8971,7 @@
         <v>3301</v>
       </c>
       <c r="F374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -8994,7 +8994,7 @@
         <v>3312</v>
       </c>
       <c r="F375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -9017,7 +9017,7 @@
         <v>3302</v>
       </c>
       <c r="F376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -9040,7 +9040,7 @@
         <v>3292</v>
       </c>
       <c r="F377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -9063,7 +9063,7 @@
         <v>3290</v>
       </c>
       <c r="F378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -9086,7 +9086,7 @@
         <v>3300</v>
       </c>
       <c r="F379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -9178,7 +9178,7 @@
         <v>3272</v>
       </c>
       <c r="F383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -9201,7 +9201,7 @@
         <v>3279</v>
       </c>
       <c r="F384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -9224,7 +9224,7 @@
         <v>3280</v>
       </c>
       <c r="F385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -9776,7 +9776,7 @@
         <v>3346</v>
       </c>
       <c r="F409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -9891,7 +9891,7 @@
         <v>3341</v>
       </c>
       <c r="F414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -9914,7 +9914,7 @@
         <v>3332</v>
       </c>
       <c r="F415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -9937,7 +9937,7 @@
         <v>3330</v>
       </c>
       <c r="F416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -9960,7 +9960,7 @@
         <v>3332</v>
       </c>
       <c r="F417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G417" t="n">
         <v>2</v>
@@ -9983,7 +9983,7 @@
         <v>3326</v>
       </c>
       <c r="F418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
@@ -10006,7 +10006,7 @@
         <v>3320</v>
       </c>
       <c r="F419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G419" t="n">
         <v>2</v>
@@ -10029,7 +10029,7 @@
         <v>3330</v>
       </c>
       <c r="F420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -10075,7 +10075,7 @@
         <v>3352</v>
       </c>
       <c r="F422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -10121,7 +10121,7 @@
         <v>3364</v>
       </c>
       <c r="F424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G424" t="n">
         <v>2</v>
@@ -10144,7 +10144,7 @@
         <v>3378</v>
       </c>
       <c r="F425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G425" t="n">
         <v>2</v>
@@ -10167,7 +10167,7 @@
         <v>3387</v>
       </c>
       <c r="F426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -10305,7 +10305,7 @@
         <v>3422</v>
       </c>
       <c r="F432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G432" t="n">
         <v>2</v>
@@ -10328,7 +10328,7 @@
         <v>3440</v>
       </c>
       <c r="F433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G433" t="n">
         <v>2</v>
@@ -10351,7 +10351,7 @@
         <v>3449</v>
       </c>
       <c r="F434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -10374,7 +10374,7 @@
         <v>3469</v>
       </c>
       <c r="F435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -10397,7 +10397,7 @@
         <v>3473</v>
       </c>
       <c r="F436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G436" t="n">
         <v>2</v>
@@ -10420,7 +10420,7 @@
         <v>3494</v>
       </c>
       <c r="F437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -10443,7 +10443,7 @@
         <v>3472</v>
       </c>
       <c r="F438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -10466,7 +10466,7 @@
         <v>3461</v>
       </c>
       <c r="F439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G439" t="n">
         <v>2</v>
@@ -10489,7 +10489,7 @@
         <v>3483</v>
       </c>
       <c r="F440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -10512,7 +10512,7 @@
         <v>3471</v>
       </c>
       <c r="F441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -10535,7 +10535,7 @@
         <v>3408</v>
       </c>
       <c r="F442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G442" t="n">
         <v>2</v>
@@ -10558,7 +10558,7 @@
         <v>3386</v>
       </c>
       <c r="F443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="G445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446">
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="G446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447">
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="G447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448">
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="G448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="G449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450">
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="G450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -10745,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="G451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -10768,7 +10768,7 @@
         <v>0</v>
       </c>
       <c r="G452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453">
@@ -10791,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="G453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="G454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455">
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="G455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456">
@@ -10860,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="G456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457">
@@ -10883,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="G457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="G458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459">
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="G468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="G469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470">
@@ -11182,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="G470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471">
@@ -11205,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="G471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472">
@@ -11228,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="G472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="G473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474">
@@ -11274,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="G474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475">
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="G475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="G476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477">
@@ -11343,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="G477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478">
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="G478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479">
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="G479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480">
@@ -11412,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="G480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481">
@@ -11435,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="G481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482">
@@ -11458,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="G482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483">
@@ -11481,7 +11481,7 @@
         <v>0</v>
       </c>
       <c r="G483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484">
@@ -11504,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="G484" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485">
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="G485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="G486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -11573,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="G487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="G488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -11619,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="G489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -11642,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="G490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -11665,7 +11665,7 @@
         <v>0</v>
       </c>
       <c r="G491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -11688,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="G492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -11711,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="G493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="G494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -11757,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="G495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -11780,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="G496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -11803,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="G497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498">
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="G498" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499">
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="G499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500">
@@ -11872,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="G500" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501">
@@ -11895,7 +11895,7 @@
         <v>0</v>
       </c>
       <c r="G501" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502">
@@ -11918,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="G502" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503">
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="G503" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504">
@@ -11964,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="G504" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505">
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="G505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -12010,7 +12010,7 @@
         <v>0</v>
       </c>
       <c r="G506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="G507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508">
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="G508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="G509" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510">
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="G510" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -13137,7 +13137,7 @@
         <v>0</v>
       </c>
       <c r="G555" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556">
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="G556" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557">
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="G557" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558">
@@ -13206,7 +13206,7 @@
         <v>0</v>
       </c>
       <c r="G558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559">
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="G559" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560">
@@ -13252,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="G560" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -13275,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="G561" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562">
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="G562" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563">
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="G563" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564">
@@ -13344,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="G564" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565">
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="G565" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566">
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="G566" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567">
@@ -13413,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="G567" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568">
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="G568" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569">
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="G569" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570">
@@ -13482,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="G570" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571">
@@ -13505,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="G571" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572">
@@ -13528,7 +13528,7 @@
         <v>0</v>
       </c>
       <c r="G572" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573">
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="G573" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574">
@@ -13574,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="G574" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="G575" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576">
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="G576" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577">
@@ -13643,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="G577" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="G578" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579">
@@ -14567,6 +14567,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>